--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Sam</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sungwoo</t>
+          <t>Seoyoon</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>yujin</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5-11:30 B</t>
+          <t>12-5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -667,24 +667,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Mandy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SUN</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10-5</t>
+          <t>5-11:30 B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>yujin</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5-11:30</t>
+          <t>10-5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Fionna</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5-11:30 A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Mandy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5-11:30 B</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sungwoo</t>
         </is>
       </c>
     </row>

--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Jonnah</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Mandy</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>yujin</t>
+          <t>Sam</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>yujin</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jonnah</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Seoyoon</t>
+          <t>Mandy</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Seoyoon</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Sam</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Sungwoo</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sungwoo</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>

--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Seoyoon</t>
+          <t>yujin</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yujin</t>
+          <t>Seoyoon</t>
         </is>
       </c>
     </row>

--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jonnah</t>
+          <t>Jonnah✅</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Mandy✅</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jonnah</t>
+          <t>Jonnah✅</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Sam✅</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sungwoo</t>
+          <t>Sungwoo✅</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Minal✅</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yujin</t>
+          <t>yujin✅</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Mandy✅</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Fionna✅</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Minal✅</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>yujin</t>
+          <t>Seoyoon</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Seoyoon</t>
+          <t>yujin✅</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Sam✅</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sungwoo</t>
+          <t>Sungwoo✅</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Fionna✅</t>
         </is>
       </c>
     </row>

--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jonnah✅</t>
+          <t>Jonnah</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mandy✅</t>
+          <t>Mandy</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jonnah✅</t>
+          <t>Jonnah</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sam✅</t>
+          <t>Sam</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sungwoo✅</t>
+          <t>Sungwoo</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minal✅</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yujin✅</t>
+          <t>yujin</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mandy✅</t>
+          <t>Mandy</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fionna✅</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Minal✅</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yujin✅</t>
+          <t>yujin</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sam✅</t>
+          <t>Sam</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sungwoo✅</t>
+          <t>Sungwoo</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fionna✅</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>

--- a/static/latest_schedule.xlsx
+++ b/static/latest_schedule.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minjung</t>
+          <t>Minal</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minal</t>
+          <t>Minjung</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sungwoo</t>
+          <t>Fionna</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fionna</t>
+          <t>Sungwoo</t>
         </is>
       </c>
     </row>
